--- a/workspace/styled.xlsx
+++ b/workspace/styled.xlsx
@@ -34,7 +34,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i val="1"/>
+      <b val="1"/>
       <sz val="24"/>
     </font>
   </fonts>
@@ -370,7 +370,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
